--- a/2020/January/All Details/01.01.2020/MC Balance Transfer Jan'2020.xlsx
+++ b/2020/January/All Details/01.01.2020/MC Balance Transfer Jan'2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\01.01.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8060AE0E-790B-4973-9888-547244D55D2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48211E25-9F95-49AC-B837-F1448D294C34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1580,9 +1580,9 @@
   <dimension ref="A1:BI232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
